--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject22.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject22.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -134,7 +134,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -173,7 +173,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="0">
-        <v>0</v>
+        <v>0.70130882997213395</v>
       </c>
       <c r="Q1" s="0">
         <v>0</v>
@@ -185,7 +185,7 @@
         <v>0</v>
       </c>
       <c r="T1" s="0">
-        <v>0</v>
+        <v>0.67843647103240978</v>
       </c>
       <c r="U1" s="0">
         <v>0</v>
@@ -242,7 +242,7 @@
         <v>0</v>
       </c>
       <c r="AM1" s="0">
-        <v>0</v>
+        <v>0.63495029961479288</v>
       </c>
       <c r="AN1" s="0">
         <v>0</v>
@@ -299,7 +299,7 @@
         <v>0</v>
       </c>
       <c r="BF1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG1" s="0">
         <v>0</v>
@@ -314,7 +314,7 @@
         <v>0</v>
       </c>
       <c r="BK1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL1" s="0">
         <v>0</v>
@@ -343,7 +343,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="AP2" s="0">
-        <v>0</v>
+        <v>0.50665202178969326</v>
       </c>
       <c r="AQ2" s="0">
         <v>0</v>
@@ -481,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="AX2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="0">
         <v>0</v>
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="BA2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB2" s="0">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="BG2" s="0">
-        <v>0</v>
+        <v>0.7587959292680293</v>
       </c>
       <c r="BH2" s="0">
         <v>0</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>0</v>
+        <v>0.98872631165080649</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>0</v>
       </c>
       <c r="I3" s="0">
-        <v>0</v>
+        <v>0.63935052117983848</v>
       </c>
       <c r="J3" s="0">
-        <v>0</v>
+        <v>0.84639842120813868</v>
       </c>
       <c r="K3" s="0">
         <v>0</v>
       </c>
       <c r="L3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="0">
         <v>0</v>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" s="0">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="AE3" s="0">
-        <v>0</v>
+        <v>0.663049111139699</v>
       </c>
       <c r="AF3" s="0">
         <v>0</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="AQ3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR3" s="0">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0.61296976832940131</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="0">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="0">
         <v>0</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="AS4" s="0">
-        <v>0</v>
+        <v>0.72237803696113168</v>
       </c>
       <c r="AT4" s="0">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="BA4" s="0">
-        <v>0</v>
+        <v>0.80960473780151465</v>
       </c>
       <c r="BB4" s="0">
         <v>0</v>
@@ -958,16 +958,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0</v>
+        <v>0.76501413846906197</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="0">
         <v>0</v>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="0">
-        <v>0</v>
+        <v>0.82631453270331945</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="0">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Y5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="0">
         <v>0</v>
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="AD5" s="0">
-        <v>0</v>
+        <v>0.9532358525631992</v>
       </c>
       <c r="AE5" s="0">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="BH5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="0">
         <v>0</v>
@@ -1167,16 +1167,16 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0.76788849283222371</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="0">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="S6" s="0">
-        <v>0</v>
+        <v>0.77123631124136538</v>
       </c>
       <c r="T6" s="0">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="0">
-        <v>0</v>
+        <v>0.87283035808039089</v>
       </c>
       <c r="W6" s="0">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="0">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="AW6" s="0">
-        <v>0</v>
+        <v>0.55667116268948991</v>
       </c>
       <c r="AX6" s="0">
         <v>0</v>
@@ -1320,13 +1320,13 @@
         <v>0</v>
       </c>
       <c r="BC6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="0">
         <v>0</v>
       </c>
       <c r="BE6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="0">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="BN6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO6" s="0">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0</v>
+        <v>0.50791095783381113</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="0">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="0">
-        <v>0</v>
+        <v>0.6932506581952893</v>
       </c>
       <c r="V7" s="0">
         <v>0</v>
@@ -1472,10 +1472,10 @@
         <v>0</v>
       </c>
       <c r="AK7" s="0">
-        <v>0</v>
+        <v>0.90915414831715813</v>
       </c>
       <c r="AL7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="0">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="0">
         <v>0</v>
@@ -1645,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="Z8" s="0">
-        <v>0</v>
+        <v>0.61538297287171062</v>
       </c>
       <c r="AA8" s="0">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="AE8" s="0">
-        <v>0</v>
+        <v>0.90727483359059646</v>
       </c>
       <c r="AF8" s="0">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="0">
         <v>0</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="BA8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8" s="0">
         <v>0</v>
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="BK8" s="0">
-        <v>0</v>
+        <v>0.72106588715193887</v>
       </c>
       <c r="BL8" s="0">
         <v>0</v>
@@ -1782,22 +1782,22 @@
         <v>0</v>
       </c>
       <c r="C9" s="0">
-        <v>0</v>
+        <v>0.76573902215764755</v>
       </c>
       <c r="D9" s="0">
         <v>0</v>
       </c>
       <c r="E9" s="0">
-        <v>0</v>
+        <v>0.80682054918840485</v>
       </c>
       <c r="F9" s="0">
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0</v>
+        <v>0.97211331198335449</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="0">
         <v>0</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="0">
-        <v>0</v>
+        <v>0.97867620841380454</v>
       </c>
       <c r="AD9" s="0">
         <v>0</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="AN9" s="0">
-        <v>0</v>
+        <v>0.83245515421056626</v>
       </c>
       <c r="AO9" s="0">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="BD9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE9" s="0">
         <v>0</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="BJ9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK9" s="0">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="BO9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP9" s="0">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="0">
-        <v>0</v>
+        <v>0.80023241953858715</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="0">
         <v>0</v>
@@ -2048,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="W10" s="0">
-        <v>0</v>
+        <v>0.62304717349690752</v>
       </c>
       <c r="X10" s="0">
-        <v>0</v>
+        <v>0.8812108029229162</v>
       </c>
       <c r="Y10" s="0">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="0">
-        <v>0</v>
+        <v>0.80200350867367787</v>
       </c>
       <c r="AL10" s="0">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="AX10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="0">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="BB10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC10" s="0">
         <v>0</v>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>1</v>
+        <v>0.64434997354876655</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" s="0">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="AF11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="0">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="0">
-        <v>0</v>
+        <v>0.96293807520532981</v>
       </c>
       <c r="AK11" s="0">
         <v>0</v>
       </c>
       <c r="AL11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="0">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="AU11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV11" s="0">
         <v>0</v>
       </c>
       <c r="AW11" s="0">
-        <v>0</v>
+        <v>0.71410050684448478</v>
       </c>
       <c r="AX11" s="0">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="BO11" s="0">
-        <v>0</v>
+        <v>0.64167802637624161</v>
       </c>
       <c r="BP11" s="0">
         <v>0</v>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="0">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="0">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="AD12" s="0">
-        <v>0</v>
+        <v>0.56337676547384108</v>
       </c>
       <c r="AE12" s="0">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="AW12" s="0">
-        <v>0</v>
+        <v>0.77483342408174893</v>
       </c>
       <c r="AX12" s="0">
         <v>0</v>
@@ -2562,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="BE12" s="0">
-        <v>0</v>
+        <v>0.77014925612866947</v>
       </c>
       <c r="BF12" s="0">
         <v>0</v>
@@ -2589,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="BN12" s="0">
-        <v>0</v>
+        <v>0.89793414724999376</v>
       </c>
       <c r="BO12" s="0">
         <v>0</v>
@@ -2630,10 +2630,10 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>1</v>
+        <v>0.84009658287327449</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="0">
         <v>0</v>
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="AN13" s="0">
-        <v>0</v>
+        <v>0.94700182524855192</v>
       </c>
       <c r="AO13" s="0">
         <v>0</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="BD13" s="0">
-        <v>0</v>
+        <v>0.86647344159727013</v>
       </c>
       <c r="BE13" s="0">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="BL13" s="0">
-        <v>1</v>
+        <v>0.86042435376164561</v>
       </c>
       <c r="BM13" s="0">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="0">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="0">
-        <v>0</v>
+        <v>0.55162320250706542</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" s="0">
         <v>0</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="AD14" s="0">
-        <v>0</v>
+        <v>0.66092632683989083</v>
       </c>
       <c r="AE14" s="0">
         <v>0</v>
@@ -3001,13 +3001,13 @@
         <v>0</v>
       </c>
       <c r="BN14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO14" s="0">
         <v>0</v>
       </c>
       <c r="BP14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>0</v>
+        <v>0.92644723967936016</v>
       </c>
       <c r="Q15" s="0">
         <v>0</v>
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" s="0">
         <v>0</v>
@@ -3084,10 +3084,10 @@
         <v>0</v>
       </c>
       <c r="Y15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="0">
-        <v>0</v>
+        <v>0.92085189824502345</v>
       </c>
       <c r="AA15" s="0">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="AN15" s="0">
-        <v>0</v>
+        <v>0.94744645968207619</v>
       </c>
       <c r="AO15" s="0">
         <v>0</v>
@@ -3144,13 +3144,13 @@
         <v>0</v>
       </c>
       <c r="AS15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="0">
         <v>0</v>
       </c>
       <c r="AU15" s="0">
-        <v>0</v>
+        <v>0.96428849580111942</v>
       </c>
       <c r="AV15" s="0">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="BM15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="0">
         <v>0</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0</v>
+        <v>0.95432611918374544</v>
       </c>
       <c r="B16" s="0">
         <v>0</v>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -3257,16 +3257,16 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>0</v>
+        <v>0.52691723153879511</v>
       </c>
       <c r="O16" s="0">
-        <v>0</v>
+        <v>0.67073440345540547</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0</v>
+        <v>0.68337862758266299</v>
       </c>
       <c r="R16" s="0">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="V16" s="0">
-        <v>0</v>
+        <v>0.73774743812973864</v>
       </c>
       <c r="W16" s="0">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="Y16" s="0">
-        <v>1</v>
+        <v>0.80895931210227601</v>
       </c>
       <c r="Z16" s="0">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="0">
-        <v>0</v>
+        <v>0.87457216625218548</v>
       </c>
       <c r="AL16" s="0">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="P17" s="0">
-        <v>0</v>
+        <v>0.50989338812076823</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="0">
         <v>0</v>
       </c>
       <c r="T17" s="0">
-        <v>0</v>
+        <v>0.65819049158182297</v>
       </c>
       <c r="U17" s="0">
         <v>0</v>
@@ -3517,22 +3517,22 @@
         <v>0</v>
       </c>
       <c r="AF17" s="0">
-        <v>0</v>
+        <v>0.95751675848558926</v>
       </c>
       <c r="AG17" s="0">
         <v>0</v>
       </c>
       <c r="AH17" s="0">
-        <v>0</v>
+        <v>0.98446862006646008</v>
       </c>
       <c r="AI17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="0">
         <v>0</v>
       </c>
       <c r="AK17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17" s="0">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3792,10 +3792,10 @@
         <v>0</v>
       </c>
       <c r="BC18" s="0">
-        <v>0</v>
+        <v>0.8579611018568154</v>
       </c>
       <c r="BD18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE18" s="0">
         <v>0</v>
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="BH18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="0">
         <v>0</v>
@@ -3816,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="BK18" s="0">
-        <v>0</v>
+        <v>0.79359732775040981</v>
       </c>
       <c r="BL18" s="0">
         <v>0</v>
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="0">
-        <v>0</v>
+        <v>0.75460074205247751</v>
       </c>
       <c r="G19" s="0">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="0">
         <v>0</v>
@@ -3959,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="AP19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ19" s="0">
         <v>0</v>
@@ -3971,10 +3971,10 @@
         <v>0</v>
       </c>
       <c r="AT19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU19" s="0">
-        <v>0</v>
+        <v>0.71388346371804601</v>
       </c>
       <c r="AV19" s="0">
         <v>0</v>
@@ -3983,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="AX19" s="0">
-        <v>0</v>
+        <v>0.76148407451042532</v>
       </c>
       <c r="AY19" s="0">
         <v>0</v>
@@ -4001,7 +4001,7 @@
         <v>0</v>
       </c>
       <c r="BD19" s="0">
-        <v>0</v>
+        <v>0.79496210096548814</v>
       </c>
       <c r="BE19" s="0">
         <v>0</v>
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="BH19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="0">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="BO19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP19" s="0">
         <v>0</v>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0</v>
+        <v>0.88460935080061431</v>
       </c>
       <c r="B20" s="0">
         <v>0</v>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="0">
         <v>0</v>
@@ -4090,10 +4090,10 @@
         <v>0</v>
       </c>
       <c r="Q20" s="0">
-        <v>0</v>
+        <v>0.72809862439394224</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="0">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="AA20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="0">
         <v>0</v>
@@ -4204,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="BC20" s="0">
-        <v>0</v>
+        <v>0.98456582364649303</v>
       </c>
       <c r="BD20" s="0">
         <v>0</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="0">
-        <v>0</v>
+        <v>0.52052112361010472</v>
       </c>
       <c r="H21" s="0">
         <v>0</v>
@@ -4278,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="0">
         <v>0</v>
@@ -4338,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="AE21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21" s="0">
         <v>0</v>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="AI21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="0">
         <v>0</v>
@@ -4365,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="AN21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="0">
         <v>0</v>
@@ -4392,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="AW21" s="0">
-        <v>0</v>
+        <v>0.67420729784317623</v>
       </c>
       <c r="AX21" s="0">
         <v>0</v>
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="BL21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM21" s="0">
         <v>0</v>
@@ -4466,10 +4466,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="0">
-        <v>0</v>
+        <v>0.51861277830248165</v>
       </c>
       <c r="G22" s="0">
         <v>0</v>
@@ -4496,10 +4496,10 @@
         <v>0</v>
       </c>
       <c r="O22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" s="0">
-        <v>0</v>
+        <v>0.589018726806944</v>
       </c>
       <c r="Q22" s="0">
         <v>0</v>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0</v>
+        <v>0.77165271726529183</v>
       </c>
       <c r="X22" s="0">
         <v>0</v>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="AO22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP22" s="0">
         <v>0</v>
@@ -4595,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="AV22" s="0">
-        <v>0</v>
+        <v>0.99875248301392427</v>
       </c>
       <c r="AW22" s="0">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="BE22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF22" s="0">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="0">
         <v>0</v>
@@ -4687,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="0">
-        <v>0</v>
+        <v>0.50922304915039662</v>
       </c>
       <c r="K23" s="0">
         <v>0</v>
@@ -4699,7 +4699,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="0">
         <v>0</v>
@@ -4723,13 +4723,13 @@
         <v>0</v>
       </c>
       <c r="V23" s="0">
-        <v>0</v>
+        <v>0.84606833220088307</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0.54369413897903007</v>
       </c>
       <c r="Y23" s="0">
         <v>0</v>
@@ -4753,13 +4753,13 @@
         <v>0</v>
       </c>
       <c r="AF23" s="0">
-        <v>0</v>
+        <v>0.99465393890325116</v>
       </c>
       <c r="AG23" s="0">
         <v>0</v>
       </c>
       <c r="AH23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI23" s="0">
         <v>0</v>
@@ -4774,10 +4774,10 @@
         <v>0</v>
       </c>
       <c r="AM23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="0">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="AU23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV23" s="0">
         <v>0</v>
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="AZ23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="0">
         <v>0</v>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="BP23" s="0">
-        <v>0</v>
+        <v>0.65142900559358496</v>
       </c>
     </row>
     <row r="24">
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="0">
-        <v>0</v>
+        <v>0.77855648205699302</v>
       </c>
       <c r="K24" s="0">
         <v>0</v>
@@ -4902,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="0">
         <v>0</v>
@@ -4932,13 +4932,13 @@
         <v>0</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0.65470675049781757</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="0">
         <v>0</v>
@@ -4959,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="AF24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="0">
         <v>0</v>
@@ -4968,7 +4968,7 @@
         <v>0</v>
       </c>
       <c r="AI24" s="0">
-        <v>0</v>
+        <v>0.6268966440679401</v>
       </c>
       <c r="AJ24" s="0">
         <v>0</v>
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="AP24" s="0">
-        <v>0</v>
+        <v>0.92423753469222336</v>
       </c>
       <c r="AQ24" s="0">
         <v>0</v>
@@ -5049,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="BJ24" s="0">
-        <v>0</v>
+        <v>0.85885745508704625</v>
       </c>
       <c r="BK24" s="0">
         <v>0</v>
@@ -5084,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="0">
         <v>0</v>
@@ -5114,10 +5114,10 @@
         <v>0</v>
       </c>
       <c r="O25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" s="0">
-        <v>1</v>
+        <v>0.69422382654291859</v>
       </c>
       <c r="Q25" s="0">
         <v>0</v>
@@ -5141,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
@@ -5168,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="AG25" s="0">
-        <v>0</v>
+        <v>0.96421313908658046</v>
       </c>
       <c r="AH25" s="0">
         <v>0</v>
@@ -5219,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="AX25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="0">
         <v>0</v>
@@ -5240,13 +5240,13 @@
         <v>0</v>
       </c>
       <c r="BE25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF25" s="0">
         <v>0</v>
       </c>
       <c r="BG25" s="0">
-        <v>0</v>
+        <v>0.80404891479008944</v>
       </c>
       <c r="BH25" s="0">
         <v>0</v>
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="BP25" s="0">
-        <v>0</v>
+        <v>0.81045115419118141</v>
       </c>
     </row>
     <row r="26">
@@ -5299,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="0">
-        <v>0</v>
+        <v>0.80468935033190736</v>
       </c>
       <c r="I26" s="0">
         <v>0</v>
@@ -5320,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="0">
-        <v>0</v>
+        <v>0.76963280678175494</v>
       </c>
       <c r="P26" s="0">
         <v>0</v>
@@ -5395,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="AN26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="0">
         <v>0</v>
@@ -5425,13 +5425,13 @@
         <v>0</v>
       </c>
       <c r="AX26" s="0">
-        <v>0</v>
+        <v>0.52435833091194395</v>
       </c>
       <c r="AY26" s="0">
         <v>0</v>
       </c>
       <c r="AZ26" s="0">
-        <v>0</v>
+        <v>0.56542427644918392</v>
       </c>
       <c r="BA26" s="0">
         <v>0</v>
@@ -5455,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="BH26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="0">
         <v>0</v>
@@ -5470,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="BM26" s="0">
-        <v>0</v>
+        <v>0.6870347026690109</v>
       </c>
       <c r="BN26" s="0">
         <v>0</v>
@@ -5541,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27" s="0">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>0</v>
+        <v>0.56672001768129954</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5610,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="AQ27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR27" s="0">
         <v>0</v>
@@ -5637,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="AZ27" s="0">
-        <v>0</v>
+        <v>0.68990234972660269</v>
       </c>
       <c r="BA27" s="0">
         <v>0</v>
@@ -5661,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="BH27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI27" s="0">
         <v>0</v>
@@ -5670,13 +5670,13 @@
         <v>0</v>
       </c>
       <c r="BK27" s="0">
-        <v>0</v>
+        <v>0.69207463899433841</v>
       </c>
       <c r="BL27" s="0">
         <v>0</v>
       </c>
       <c r="BM27" s="0">
-        <v>0</v>
+        <v>0.89614118897435957</v>
       </c>
       <c r="BN27" s="0">
         <v>0</v>
@@ -5705,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="0">
         <v>0</v>
@@ -5774,10 +5774,10 @@
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>0</v>
+        <v>0.70009521232233318</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="AG28" s="0">
-        <v>0</v>
+        <v>0.7970259513049508</v>
       </c>
       <c r="AH28" s="0">
         <v>0</v>
@@ -5795,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="0">
-        <v>0</v>
+        <v>0.57776773420981709</v>
       </c>
       <c r="AK28" s="0">
         <v>0</v>
@@ -5804,7 +5804,7 @@
         <v>0</v>
       </c>
       <c r="AM28" s="0">
-        <v>0</v>
+        <v>0.83218302212732731</v>
       </c>
       <c r="AN28" s="0">
         <v>0</v>
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="0">
-        <v>0</v>
+        <v>0.5896035999761764</v>
       </c>
       <c r="J29" s="0">
         <v>0</v>
@@ -5974,16 +5974,16 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0</v>
+        <v>0.86096872902376598</v>
       </c>
       <c r="AB29" s="0">
-        <v>0</v>
+        <v>0.72005052486207799</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0</v>
+        <v>0.94814254677650334</v>
       </c>
       <c r="AE29" s="0">
         <v>0</v>
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="AL29" s="0">
-        <v>0</v>
+        <v>0.92215552635683595</v>
       </c>
       <c r="AM29" s="0">
         <v>0</v>
@@ -6025,13 +6025,13 @@
         <v>0</v>
       </c>
       <c r="AR29" s="0">
-        <v>0</v>
+        <v>0.8823990786989786</v>
       </c>
       <c r="AS29" s="0">
         <v>0</v>
       </c>
       <c r="AT29" s="0">
-        <v>0</v>
+        <v>0.86261448725391032</v>
       </c>
       <c r="AU29" s="0">
         <v>0</v>
@@ -6040,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="AW29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX29" s="0">
         <v>0</v>
@@ -6070,13 +6070,13 @@
         <v>0</v>
       </c>
       <c r="BG29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH29" s="0">
         <v>0</v>
       </c>
       <c r="BI29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ29" s="0">
         <v>0</v>
@@ -6114,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="0">
-        <v>0</v>
+        <v>0.66404343668564281</v>
       </c>
       <c r="F30" s="0">
         <v>0</v>
@@ -6135,13 +6135,13 @@
         <v>0</v>
       </c>
       <c r="L30" s="0">
-        <v>0</v>
+        <v>0.64752655964938821</v>
       </c>
       <c r="M30" s="0">
         <v>0</v>
       </c>
       <c r="N30" s="0">
-        <v>0</v>
+        <v>0.69921938629675529</v>
       </c>
       <c r="O30" s="0">
         <v>0</v>
@@ -6183,16 +6183,16 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>0</v>
+        <v>0.73421149121594109</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0</v>
+        <v>0.56333119823553579</v>
       </c>
       <c r="AF30" s="0">
         <v>0</v>
@@ -6201,10 +6201,10 @@
         <v>0</v>
       </c>
       <c r="AH30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI30" s="0">
-        <v>0</v>
+        <v>0.75029172521542542</v>
       </c>
       <c r="AJ30" s="0">
         <v>0</v>
@@ -6267,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="BD30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE30" s="0">
         <v>0</v>
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="BK30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL30" s="0">
         <v>0</v>
@@ -6314,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="0">
-        <v>0</v>
+        <v>0.85219670907259149</v>
       </c>
       <c r="D31" s="0">
         <v>0</v>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="0">
-        <v>0</v>
+        <v>0.89565078494240336</v>
       </c>
       <c r="I31" s="0">
         <v>0</v>
@@ -6368,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="U31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31" s="0">
         <v>0</v>
@@ -6395,7 +6395,7 @@
         <v>0</v>
       </c>
       <c r="AD31" s="0">
-        <v>0</v>
+        <v>0.63023648490860895</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
@@ -6443,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="AT31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU31" s="0">
         <v>0</v>
@@ -6497,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="BL31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM31" s="0">
         <v>0</v>
@@ -6544,7 +6544,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="0">
         <v>0</v>
@@ -6562,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="0">
-        <v>0</v>
+        <v>0.60106971458870129</v>
       </c>
       <c r="R32" s="0">
         <v>0</v>
@@ -6580,10 +6580,10 @@
         <v>0</v>
       </c>
       <c r="W32" s="0">
-        <v>0</v>
+        <v>0.56549173075939518</v>
       </c>
       <c r="X32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="0">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="AN32" s="0">
-        <v>1</v>
+        <v>0.67962411386985744</v>
       </c>
       <c r="AO32" s="0">
         <v>0</v>
@@ -6792,7 +6792,7 @@
         <v>0</v>
       </c>
       <c r="Y33" s="0">
-        <v>0</v>
+        <v>0.50995553788643844</v>
       </c>
       <c r="Z33" s="0">
         <v>0</v>
@@ -6801,7 +6801,7 @@
         <v>0</v>
       </c>
       <c r="AB33" s="0">
-        <v>0</v>
+        <v>0.61885066127627453</v>
       </c>
       <c r="AC33" s="0">
         <v>0</v>
@@ -6828,7 +6828,7 @@
         <v>0</v>
       </c>
       <c r="AK33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="0">
         <v>0</v>
@@ -6852,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="AS33" s="0">
-        <v>0</v>
+        <v>0.60670263323519436</v>
       </c>
       <c r="AT33" s="0">
         <v>0</v>
@@ -6861,13 +6861,13 @@
         <v>0</v>
       </c>
       <c r="AV33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW33" s="0">
-        <v>0</v>
+        <v>0.58453732490435883</v>
       </c>
       <c r="AX33" s="0">
-        <v>0</v>
+        <v>0.8489442095096742</v>
       </c>
       <c r="AY33" s="0">
         <v>0</v>
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="0">
-        <v>0</v>
+        <v>0.91839038268235484</v>
       </c>
       <c r="R34" s="0">
         <v>0</v>
@@ -6992,7 +6992,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X34" s="0">
         <v>0</v>
@@ -7013,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="AD34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="0">
         <v>0</v>
@@ -7028,13 +7028,13 @@
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0.59203241093550041</v>
       </c>
       <c r="AJ34" s="0">
         <v>0</v>
       </c>
       <c r="AK34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34" s="0">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="AR34" s="0">
-        <v>0</v>
+        <v>0.65204169696461411</v>
       </c>
       <c r="AS34" s="0">
         <v>0</v>
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="BD34" s="0">
-        <v>0</v>
+        <v>0.7654295667279023</v>
       </c>
       <c r="BE34" s="0">
         <v>0</v>
@@ -7180,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" s="0">
         <v>0</v>
@@ -7192,7 +7192,7 @@
         <v>0</v>
       </c>
       <c r="U35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35" s="0">
         <v>0</v>
@@ -7201,7 +7201,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="0">
-        <v>0</v>
+        <v>0.99776715764680035</v>
       </c>
       <c r="Y35" s="0">
         <v>0</v>
@@ -7219,7 +7219,7 @@
         <v>0</v>
       </c>
       <c r="AD35" s="0">
-        <v>0</v>
+        <v>0.63948525493417663</v>
       </c>
       <c r="AE35" s="0">
         <v>0</v>
@@ -7231,16 +7231,16 @@
         <v>0</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0.56365668634195787</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0</v>
+        <v>0.51933713004165805</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7276,7 +7276,7 @@
         <v>0</v>
       </c>
       <c r="AW35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX35" s="0">
         <v>0</v>
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="BB35" s="0">
-        <v>0</v>
+        <v>0.72320167699428706</v>
       </c>
       <c r="BC35" s="0">
         <v>0</v>
@@ -7368,7 +7368,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="0">
-        <v>0</v>
+        <v>0.5243812128358778</v>
       </c>
       <c r="L36" s="0">
         <v>0</v>
@@ -7419,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="AB36" s="0">
-        <v>0</v>
+        <v>0.69320726816192657</v>
       </c>
       <c r="AC36" s="0">
         <v>0</v>
@@ -7440,13 +7440,13 @@
         <v>0</v>
       </c>
       <c r="AI36" s="0">
-        <v>0</v>
+        <v>0.77799427694979439</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="0">
         <v>0</v>
@@ -7455,7 +7455,7 @@
         <v>0</v>
       </c>
       <c r="AN36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO36" s="0">
         <v>0</v>
@@ -7494,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="BA36" s="0">
-        <v>0</v>
+        <v>0.59822266715327588</v>
       </c>
       <c r="BB36" s="0">
         <v>0</v>
@@ -7515,7 +7515,7 @@
         <v>0</v>
       </c>
       <c r="BH36" s="0">
-        <v>0</v>
+        <v>0.51017596720018044</v>
       </c>
       <c r="BI36" s="0">
         <v>0</v>
@@ -7562,7 +7562,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="0">
-        <v>0</v>
+        <v>0.70990280029853103</v>
       </c>
       <c r="H37" s="0">
         <v>0</v>
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="0">
-        <v>0</v>
+        <v>0.77292838745942172</v>
       </c>
       <c r="K37" s="0">
         <v>0</v>
@@ -7589,10 +7589,10 @@
         <v>0</v>
       </c>
       <c r="P37" s="0">
-        <v>0</v>
+        <v>0.53492755117580582</v>
       </c>
       <c r="Q37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37" s="0">
         <v>0</v>
@@ -7640,16 +7640,16 @@
         <v>0</v>
       </c>
       <c r="AG37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
@@ -7685,7 +7685,7 @@
         <v>0</v>
       </c>
       <c r="AV37" s="0">
-        <v>0</v>
+        <v>0.9450460472982698</v>
       </c>
       <c r="AW37" s="0">
         <v>0</v>
@@ -7768,7 +7768,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="0">
         <v>0</v>
@@ -7780,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="0">
         <v>0</v>
@@ -7834,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="0">
-        <v>0</v>
+        <v>0.70071052317548754</v>
       </c>
       <c r="AD38" s="0">
         <v>0</v>
@@ -7864,10 +7864,10 @@
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN38" s="0">
-        <v>0</v>
+        <v>0.85396047307026657</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7912,10 +7912,10 @@
         <v>0</v>
       </c>
       <c r="BC38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE38" s="0">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>0</v>
       </c>
       <c r="BM38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN38" s="0">
         <v>0</v>
@@ -7956,7 +7956,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0</v>
+        <v>0.94964801443745217</v>
       </c>
       <c r="B39" s="0">
         <v>0</v>
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X39" s="0">
         <v>0</v>
@@ -8037,7 +8037,7 @@
         <v>0</v>
       </c>
       <c r="AB39" s="0">
-        <v>0</v>
+        <v>0.62453146213830579</v>
       </c>
       <c r="AC39" s="0">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
@@ -8109,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="AZ39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA39" s="0">
         <v>0</v>
@@ -8130,10 +8130,10 @@
         <v>0</v>
       </c>
       <c r="BG39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH39" s="0">
-        <v>0</v>
+        <v>0.63042301588395222</v>
       </c>
       <c r="BI39" s="0">
         <v>0</v>
@@ -8186,7 +8186,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="0">
-        <v>0</v>
+        <v>0.99001735557272119</v>
       </c>
       <c r="J40" s="0">
         <v>0</v>
@@ -8198,13 +8198,13 @@
         <v>0</v>
       </c>
       <c r="M40" s="0">
-        <v>0</v>
+        <v>0.99196762976849018</v>
       </c>
       <c r="N40" s="0">
         <v>0</v>
       </c>
       <c r="O40" s="0">
-        <v>0</v>
+        <v>0.62911082724295597</v>
       </c>
       <c r="P40" s="0">
         <v>0</v>
@@ -8222,13 +8222,13 @@
         <v>0</v>
       </c>
       <c r="U40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40" s="0">
         <v>0</v>
       </c>
       <c r="W40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X40" s="0">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="Z40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA40" s="0">
         <v>0</v>
@@ -8255,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="AF40" s="0">
-        <v>1</v>
+        <v>0.9085236072349443</v>
       </c>
       <c r="AG40" s="0">
         <v>0</v>
@@ -8267,13 +8267,13 @@
         <v>0</v>
       </c>
       <c r="AJ40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK40" s="0">
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>0</v>
+        <v>0.77758492036314109</v>
       </c>
       <c r="AM40" s="0">
         <v>0</v>
@@ -8282,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>0</v>
+        <v>0.66494808522002236</v>
       </c>
       <c r="AP40" s="0">
         <v>0</v>
@@ -8345,7 +8345,7 @@
         <v>0</v>
       </c>
       <c r="BJ40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK40" s="0">
         <v>0</v>
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W41" s="0">
         <v>0</v>
@@ -8485,13 +8485,13 @@
         <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>0</v>
+        <v>0.67496930016656065</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>0</v>
+        <v>0.59284074932601649</v>
       </c>
       <c r="AQ41" s="0">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="BO41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP41" s="0">
         <v>0</v>
@@ -8577,7 +8577,7 @@
         <v>0</v>
       </c>
       <c r="B42" s="0">
-        <v>0</v>
+        <v>0.72434425643317613</v>
       </c>
       <c r="C42" s="0">
         <v>0</v>
@@ -8628,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="S42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42" s="0">
         <v>0</v>
@@ -8643,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="0">
-        <v>0</v>
+        <v>0.79211624586717488</v>
       </c>
       <c r="Y42" s="0">
         <v>0</v>
@@ -8694,7 +8694,7 @@
         <v>0</v>
       </c>
       <c r="AO42" s="0">
-        <v>0</v>
+        <v>0.70907233148909021</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="AU42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV42" s="0">
         <v>0</v>
@@ -8727,13 +8727,13 @@
         <v>0</v>
       </c>
       <c r="AZ42" s="0">
-        <v>0</v>
+        <v>0.82296928651590784</v>
       </c>
       <c r="BA42" s="0">
         <v>0</v>
       </c>
       <c r="BB42" s="0">
-        <v>0</v>
+        <v>0.50588041285457108</v>
       </c>
       <c r="BC42" s="0">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="BL42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM42" s="0">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="C43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="0">
         <v>0</v>
@@ -8858,7 +8858,7 @@
         <v>0</v>
       </c>
       <c r="AA43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="0">
         <v>0</v>
@@ -8909,10 +8909,10 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0.61504112016516999</v>
       </c>
       <c r="AS43" s="0">
-        <v>0</v>
+        <v>0.68726335142760986</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="BC43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD43" s="0">
         <v>0</v>
@@ -9070,7 +9070,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="0">
-        <v>0</v>
+        <v>0.99602719477268087</v>
       </c>
       <c r="AD44" s="0">
         <v>0</v>
@@ -9085,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="AH44" s="0">
-        <v>0</v>
+        <v>0.50295525066731139</v>
       </c>
       <c r="AI44" s="0">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0.86748770854836466</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
@@ -9139,7 +9139,7 @@
         <v>0</v>
       </c>
       <c r="AZ44" s="0">
-        <v>0</v>
+        <v>0.51731025480864889</v>
       </c>
       <c r="BA44" s="0">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="BI44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ44" s="0">
         <v>0</v>
@@ -9201,7 +9201,7 @@
         <v>0</v>
       </c>
       <c r="D45" s="0">
-        <v>0</v>
+        <v>0.76356437512763597</v>
       </c>
       <c r="E45" s="0">
         <v>0</v>
@@ -9213,7 +9213,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" s="0">
         <v>0</v>
@@ -9234,7 +9234,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45" s="0">
         <v>0</v>
@@ -9288,7 +9288,7 @@
         <v>0</v>
       </c>
       <c r="AG45" s="0">
-        <v>0</v>
+        <v>0.8339017786411298</v>
       </c>
       <c r="AH45" s="0">
         <v>0</v>
@@ -9318,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0</v>
+        <v>0.94347068263374778</v>
       </c>
       <c r="AR45" s="0">
         <v>0</v>
@@ -9330,10 +9330,10 @@
         <v>0</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW45" s="0">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>0</v>
       </c>
       <c r="BI45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ45" s="0">
         <v>0</v>
@@ -9452,7 +9452,7 @@
         <v>0</v>
       </c>
       <c r="S46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T46" s="0">
         <v>0</v>
@@ -9482,13 +9482,13 @@
         <v>0</v>
       </c>
       <c r="AC46" s="0">
-        <v>0</v>
+        <v>0.74972000785359039</v>
       </c>
       <c r="AD46" s="0">
         <v>0</v>
       </c>
       <c r="AE46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF46" s="0">
         <v>0</v>
@@ -9536,10 +9536,10 @@
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0</v>
+        <v>0.86092624367333825</v>
       </c>
       <c r="AV46" s="0">
-        <v>0</v>
+        <v>0.76320394046691842</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9566,7 +9566,7 @@
         <v>0</v>
       </c>
       <c r="BE46" s="0">
-        <v>0</v>
+        <v>0.69351537822179077</v>
       </c>
       <c r="BF46" s="0">
         <v>0</v>
@@ -9578,13 +9578,13 @@
         <v>0</v>
       </c>
       <c r="BI46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ46" s="0">
         <v>0</v>
       </c>
       <c r="BK46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL46" s="0">
         <v>0</v>
@@ -9634,7 +9634,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" s="0">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="0">
-        <v>0</v>
+        <v>0.65652571048460806</v>
       </c>
       <c r="P47" s="0">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="S47" s="0">
-        <v>0</v>
+        <v>0.90853234309724384</v>
       </c>
       <c r="T47" s="0">
         <v>0</v>
@@ -9670,7 +9670,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X47" s="0">
         <v>0</v>
@@ -9727,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="AP47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ47" s="0">
         <v>0</v>
@@ -9736,16 +9736,16 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>0</v>
+        <v>0.55552652957888826</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>0</v>
+        <v>0.75797148309795015</v>
       </c>
       <c r="AW47" s="0">
         <v>0</v>
@@ -9766,7 +9766,7 @@
         <v>0</v>
       </c>
       <c r="BC47" s="0">
-        <v>0</v>
+        <v>0.69997825612645426</v>
       </c>
       <c r="BD47" s="0">
         <v>0</v>
@@ -9873,7 +9873,7 @@
         <v>0</v>
       </c>
       <c r="V48" s="0">
-        <v>0</v>
+        <v>0.83244906003290597</v>
       </c>
       <c r="W48" s="0">
         <v>0</v>
@@ -9906,7 +9906,7 @@
         <v>0</v>
       </c>
       <c r="AG48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH48" s="0">
         <v>0</v>
@@ -9918,7 +9918,7 @@
         <v>0</v>
       </c>
       <c r="AK48" s="0">
-        <v>0</v>
+        <v>0.53141117606793442</v>
       </c>
       <c r="AL48" s="0">
         <v>0</v>
@@ -9942,13 +9942,13 @@
         <v>0</v>
       </c>
       <c r="AS48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0</v>
+        <v>0.82776495157700158</v>
       </c>
       <c r="AU48" s="0">
-        <v>0</v>
+        <v>0.76928140146789015</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="BA48" s="0">
-        <v>0</v>
+        <v>0.82113733629612584</v>
       </c>
       <c r="BB48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC48" s="0">
         <v>0</v>
@@ -9999,7 +9999,7 @@
         <v>0</v>
       </c>
       <c r="BL48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM48" s="0">
         <v>0</v>
@@ -10031,7 +10031,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="0">
-        <v>0</v>
+        <v>0.91576598540248444</v>
       </c>
       <c r="G49" s="0">
         <v>0</v>
@@ -10046,10 +10046,10 @@
         <v>0</v>
       </c>
       <c r="K49" s="0">
-        <v>0</v>
+        <v>0.59592039475826142</v>
       </c>
       <c r="L49" s="0">
-        <v>0</v>
+        <v>0.78082926713317202</v>
       </c>
       <c r="M49" s="0">
         <v>0</v>
@@ -10076,7 +10076,7 @@
         <v>0</v>
       </c>
       <c r="U49" s="0">
-        <v>0</v>
+        <v>0.86737929890488541</v>
       </c>
       <c r="V49" s="0">
         <v>0</v>
@@ -10100,7 +10100,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD49" s="0">
         <v>0</v>
@@ -10112,13 +10112,13 @@
         <v>0</v>
       </c>
       <c r="AG49" s="0">
-        <v>0</v>
+        <v>0.81126595415019054</v>
       </c>
       <c r="AH49" s="0">
         <v>0</v>
       </c>
       <c r="AI49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ49" s="0">
         <v>0</v>
@@ -10196,13 +10196,13 @@
         <v>0</v>
       </c>
       <c r="BI49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ49" s="0">
         <v>0</v>
       </c>
       <c r="BK49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL49" s="0">
         <v>0</v>
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="B50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" s="0">
         <v>0</v>
@@ -10249,7 +10249,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="0">
         <v>0</v>
@@ -10276,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="S50" s="0">
-        <v>0</v>
+        <v>0.85139183951226527</v>
       </c>
       <c r="T50" s="0">
         <v>0</v>
@@ -10294,10 +10294,10 @@
         <v>0</v>
       </c>
       <c r="Y50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="0">
-        <v>0</v>
+        <v>0.58700164610446448</v>
       </c>
       <c r="AA50" s="0">
         <v>0</v>
@@ -10318,7 +10318,7 @@
         <v>0</v>
       </c>
       <c r="AG50" s="0">
-        <v>0</v>
+        <v>0.88743527958539836</v>
       </c>
       <c r="AH50" s="0">
         <v>0</v>
@@ -10378,7 +10378,7 @@
         <v>0</v>
       </c>
       <c r="BA50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB50" s="0">
         <v>0</v>
@@ -10396,7 +10396,7 @@
         <v>0</v>
       </c>
       <c r="BG50" s="0">
-        <v>0</v>
+        <v>0.84648574419215072</v>
       </c>
       <c r="BH50" s="0">
         <v>0</v>
@@ -10581,16 +10581,16 @@
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0.97161593620943854</v>
       </c>
       <c r="BA51" s="0">
-        <v>0</v>
+        <v>0.71857555436017684</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
       </c>
       <c r="BC51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD51" s="0">
         <v>0</v>
@@ -10611,7 +10611,7 @@
         <v>0</v>
       </c>
       <c r="BJ51" s="0">
-        <v>0</v>
+        <v>0.73949636155201781</v>
       </c>
       <c r="BK51" s="0">
         <v>0</v>
@@ -10629,7 +10629,7 @@
         <v>0</v>
       </c>
       <c r="BP51" s="0">
-        <v>0</v>
+        <v>0.63731459108225763</v>
       </c>
     </row>
     <row r="52">
@@ -10700,7 +10700,7 @@
         <v>0</v>
       </c>
       <c r="W52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X52" s="0">
         <v>0</v>
@@ -10709,10 +10709,10 @@
         <v>0</v>
       </c>
       <c r="Z52" s="0">
-        <v>0</v>
+        <v>0.75486424644941885</v>
       </c>
       <c r="AA52" s="0">
-        <v>0</v>
+        <v>0.83128106587302775</v>
       </c>
       <c r="AB52" s="0">
         <v>0</v>
@@ -10748,7 +10748,7 @@
         <v>0</v>
       </c>
       <c r="AM52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN52" s="0">
         <v>0</v>
@@ -10757,13 +10757,13 @@
         <v>0</v>
       </c>
       <c r="AP52" s="0">
-        <v>0</v>
+        <v>0.53810465209916947</v>
       </c>
       <c r="AQ52" s="0">
         <v>0</v>
       </c>
       <c r="AR52" s="0">
-        <v>0</v>
+        <v>0.68656398843399968</v>
       </c>
       <c r="AS52" s="0">
         <v>0</v>
@@ -10784,7 +10784,7 @@
         <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0.58329424118859219</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
@@ -10793,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="BB52" s="0">
-        <v>0</v>
+        <v>0.68077342867986146</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="BM52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN52" s="0">
         <v>0</v>
@@ -10843,13 +10843,13 @@
         <v>0</v>
       </c>
       <c r="B53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" s="0">
         <v>0</v>
       </c>
       <c r="D53" s="0">
-        <v>0</v>
+        <v>0.55110934367343611</v>
       </c>
       <c r="E53" s="0">
         <v>0</v>
@@ -10861,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" s="0">
         <v>0</v>
@@ -10945,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="AJ53" s="0">
-        <v>0</v>
+        <v>0.91209660073059218</v>
       </c>
       <c r="AK53" s="0">
         <v>0</v>
@@ -10981,16 +10981,16 @@
         <v>0</v>
       </c>
       <c r="AV53" s="0">
-        <v>0</v>
+        <v>0.51471112055884793</v>
       </c>
       <c r="AW53" s="0">
         <v>0</v>
       </c>
       <c r="AX53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0</v>
+        <v>0.86007076039721531</v>
       </c>
       <c r="AZ53" s="0">
         <v>0</v>
@@ -11002,7 +11002,7 @@
         <v>0</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11073,7 +11073,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="0">
         <v>0</v>
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="AI54" s="0">
-        <v>0</v>
+        <v>0.541004161325499</v>
       </c>
       <c r="AJ54" s="0">
         <v>0</v>
@@ -11169,7 +11169,7 @@
         <v>0</v>
       </c>
       <c r="AP54" s="0">
-        <v>0</v>
+        <v>0.93032152156488879</v>
       </c>
       <c r="AQ54" s="0">
         <v>0</v>
@@ -11187,7 +11187,7 @@
         <v>0</v>
       </c>
       <c r="AV54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW54" s="0">
         <v>0</v>
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>0</v>
+        <v>0.5694161547149279</v>
       </c>
       <c r="BA54" s="0">
         <v>0</v>
@@ -11211,7 +11211,7 @@
         <v>0</v>
       </c>
       <c r="BD54" s="0">
-        <v>0</v>
+        <v>0.65108363741240649</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11235,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="BL54" s="0">
-        <v>0</v>
+        <v>0.94697953114888034</v>
       </c>
       <c r="BM54" s="0">
         <v>0</v>
@@ -11267,7 +11267,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" s="0">
         <v>0</v>
@@ -11303,13 +11303,13 @@
         <v>0</v>
       </c>
       <c r="R55" s="0">
-        <v>0</v>
+        <v>0.82737780979705611</v>
       </c>
       <c r="S55" s="0">
         <v>0</v>
       </c>
       <c r="T55" s="0">
-        <v>0</v>
+        <v>0.58936090994813273</v>
       </c>
       <c r="U55" s="0">
         <v>0</v>
@@ -11363,7 +11363,7 @@
         <v>0</v>
       </c>
       <c r="AL55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM55" s="0">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR55" s="0">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="AU55" s="0">
-        <v>0</v>
+        <v>0.53327740908565224</v>
       </c>
       <c r="AV55" s="0">
         <v>0</v>
@@ -11402,13 +11402,13 @@
         <v>0</v>
       </c>
       <c r="AY55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ55" s="0">
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB55" s="0">
         <v>0</v>
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>0</v>
+        <v>0.66365603848899213</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11441,13 +11441,13 @@
         <v>0</v>
       </c>
       <c r="BL55" s="0">
-        <v>0</v>
+        <v>0.8707748955549407</v>
       </c>
       <c r="BM55" s="0">
         <v>0</v>
       </c>
       <c r="BN55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO55" s="0">
         <v>0</v>
@@ -11482,7 +11482,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" s="0">
         <v>0</v>
@@ -11494,7 +11494,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="0">
-        <v>0</v>
+        <v>0.55306343624016252</v>
       </c>
       <c r="N56" s="0">
         <v>0</v>
@@ -11509,10 +11509,10 @@
         <v>0</v>
       </c>
       <c r="R56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S56" s="0">
-        <v>0</v>
+        <v>0.74653081088601625</v>
       </c>
       <c r="T56" s="0">
         <v>0</v>
@@ -11545,7 +11545,7 @@
         <v>0</v>
       </c>
       <c r="AD56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE56" s="0">
         <v>0</v>
@@ -11557,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="AH56" s="0">
-        <v>0</v>
+        <v>0.78084961434370082</v>
       </c>
       <c r="AI56" s="0">
         <v>0</v>
@@ -11569,7 +11569,7 @@
         <v>0</v>
       </c>
       <c r="AL56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56" s="0">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>0</v>
+        <v>0.96187464986076876</v>
       </c>
       <c r="BC56" s="0">
         <v>0</v>
@@ -11626,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0</v>
+        <v>0.89703427041748141</v>
       </c>
       <c r="BF56" s="0">
         <v>0</v>
@@ -11638,7 +11638,7 @@
         <v>0</v>
       </c>
       <c r="BI56" s="0">
-        <v>0</v>
+        <v>0.54984096338996524</v>
       </c>
       <c r="BJ56" s="0">
         <v>0</v>
@@ -11653,13 +11653,13 @@
         <v>0</v>
       </c>
       <c r="BN56" s="0">
-        <v>0</v>
+        <v>0.81287637938048407</v>
       </c>
       <c r="BO56" s="0">
         <v>0</v>
       </c>
       <c r="BP56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -11679,7 +11679,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" s="0">
         <v>0</v>
@@ -11697,7 +11697,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="0">
-        <v>0</v>
+        <v>0.67192154338702736</v>
       </c>
       <c r="M57" s="0">
         <v>0</v>
@@ -11727,7 +11727,7 @@
         <v>0</v>
       </c>
       <c r="V57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W57" s="0">
         <v>0</v>
@@ -11736,7 +11736,7 @@
         <v>0</v>
       </c>
       <c r="Y57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="0">
         <v>0</v>
@@ -11799,7 +11799,7 @@
         <v>0</v>
       </c>
       <c r="AT57" s="0">
-        <v>0</v>
+        <v>0.65751161047145001</v>
       </c>
       <c r="AU57" s="0">
         <v>0</v>
@@ -11826,10 +11826,10 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0</v>
+        <v>0.51828607494431744</v>
       </c>
       <c r="BD57" s="0">
-        <v>0</v>
+        <v>0.71795799837406049</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
@@ -11844,7 +11844,7 @@
         <v>0</v>
       </c>
       <c r="BI57" s="0">
-        <v>0</v>
+        <v>0.85693988793408171</v>
       </c>
       <c r="BJ57" s="0">
         <v>0</v>
@@ -11870,7 +11870,7 @@
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58" s="0">
         <v>0</v>
@@ -12044,10 +12044,10 @@
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>0</v>
+        <v>0.97237563584530284</v>
       </c>
       <c r="BH58" s="0">
-        <v>0</v>
+        <v>0.83341797965962661</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="BN58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO58" s="0">
         <v>0</v>
@@ -12079,7 +12079,7 @@
         <v>0</v>
       </c>
       <c r="B59" s="0">
-        <v>0</v>
+        <v>0.72087970682225244</v>
       </c>
       <c r="C59" s="0">
         <v>0</v>
@@ -12148,7 +12148,7 @@
         <v>0</v>
       </c>
       <c r="Y59" s="0">
-        <v>0</v>
+        <v>0.9618151886689541</v>
       </c>
       <c r="Z59" s="0">
         <v>0</v>
@@ -12160,7 +12160,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD59" s="0">
         <v>0</v>
@@ -12190,7 +12190,7 @@
         <v>0</v>
       </c>
       <c r="AM59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN59" s="0">
         <v>0</v>
@@ -12223,7 +12223,7 @@
         <v>0</v>
       </c>
       <c r="AX59" s="0">
-        <v>0</v>
+        <v>0.91010585439323122</v>
       </c>
       <c r="AY59" s="0">
         <v>0</v>
@@ -12247,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>0</v>
+        <v>0.54325008805305042</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="BN59" s="0">
-        <v>0</v>
+        <v>0.91250989924892112</v>
       </c>
       <c r="BO59" s="0">
         <v>0</v>
@@ -12294,7 +12294,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" s="0">
         <v>0</v>
@@ -12333,10 +12333,10 @@
         <v>0</v>
       </c>
       <c r="R60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T60" s="0">
         <v>0</v>
@@ -12357,10 +12357,10 @@
         <v>0</v>
       </c>
       <c r="Z60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB60" s="0">
         <v>0</v>
@@ -12387,7 +12387,7 @@
         <v>0</v>
       </c>
       <c r="AJ60" s="0">
-        <v>0</v>
+        <v>0.78686695959748143</v>
       </c>
       <c r="AK60" s="0">
         <v>0</v>
@@ -12396,7 +12396,7 @@
         <v>0</v>
       </c>
       <c r="AM60" s="0">
-        <v>0</v>
+        <v>0.69321619147968505</v>
       </c>
       <c r="AN60" s="0">
         <v>0</v>
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>0</v>
+        <v>0.81599089156972981</v>
       </c>
       <c r="BG60" s="0">
         <v>0</v>
@@ -12465,7 +12465,7 @@
         <v>0</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0</v>
+        <v>0.7822506207830362</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12572,7 +12572,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD61" s="0">
         <v>0</v>
@@ -12617,13 +12617,13 @@
         <v>0</v>
       </c>
       <c r="AR61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU61" s="0">
         <v>0</v>
@@ -12632,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="AW61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX61" s="0">
         <v>0</v>
@@ -12653,10 +12653,10 @@
         <v>0</v>
       </c>
       <c r="BD61" s="0">
-        <v>0</v>
+        <v>0.63914242463069959</v>
       </c>
       <c r="BE61" s="0">
-        <v>0</v>
+        <v>0.89178085871367208</v>
       </c>
       <c r="BF61" s="0">
         <v>0</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12718,7 +12718,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" s="0">
         <v>0</v>
@@ -12763,7 +12763,7 @@
         <v>0</v>
       </c>
       <c r="X62" s="0">
-        <v>0</v>
+        <v>0.50093792075362054</v>
       </c>
       <c r="Y62" s="0">
         <v>0</v>
@@ -12811,7 +12811,7 @@
         <v>0</v>
       </c>
       <c r="AN62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO62" s="0">
         <v>0</v>
@@ -12844,7 +12844,7 @@
         <v>0</v>
       </c>
       <c r="AY62" s="0">
-        <v>0</v>
+        <v>0.57575116496722001</v>
       </c>
       <c r="AZ62" s="0">
         <v>0</v>
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0</v>
+        <v>0.73027717694230809</v>
       </c>
       <c r="BI62" s="0">
         <v>0</v>
@@ -12889,10 +12889,10 @@
         <v>0</v>
       </c>
       <c r="BN62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP62" s="0">
         <v>0</v>
@@ -12900,7 +12900,7 @@
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B63" s="0">
         <v>0</v>
@@ -12921,7 +12921,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="0">
-        <v>0</v>
+        <v>0.68495695757088515</v>
       </c>
       <c r="I63" s="0">
         <v>0</v>
@@ -12951,7 +12951,7 @@
         <v>0</v>
       </c>
       <c r="R63" s="0">
-        <v>0</v>
+        <v>0.91158302311635764</v>
       </c>
       <c r="S63" s="0">
         <v>0</v>
@@ -12978,7 +12978,7 @@
         <v>0</v>
       </c>
       <c r="AA63" s="0">
-        <v>0</v>
+        <v>0.84489171872988855</v>
       </c>
       <c r="AB63" s="0">
         <v>0</v>
@@ -12987,7 +12987,7 @@
         <v>0</v>
       </c>
       <c r="AD63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE63" s="0">
         <v>0</v>
@@ -13035,7 +13035,7 @@
         <v>0</v>
       </c>
       <c r="AT63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU63" s="0">
         <v>0</v>
@@ -13044,7 +13044,7 @@
         <v>0</v>
       </c>
       <c r="AW63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX63" s="0">
         <v>0</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ63" s="0">
         <v>0</v>
@@ -13092,7 +13092,7 @@
         <v>0</v>
       </c>
       <c r="BM63" s="0">
-        <v>0</v>
+        <v>0.86671066479311587</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13142,7 +13142,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="0">
-        <v>1</v>
+        <v>0.97223412040364077</v>
       </c>
       <c r="N64" s="0">
         <v>0</v>
@@ -13166,7 +13166,7 @@
         <v>0</v>
       </c>
       <c r="U64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V64" s="0">
         <v>0</v>
@@ -13196,7 +13196,7 @@
         <v>0</v>
       </c>
       <c r="AE64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF64" s="0">
         <v>0</v>
@@ -13229,7 +13229,7 @@
         <v>0</v>
       </c>
       <c r="AP64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ64" s="0">
         <v>0</v>
@@ -13247,7 +13247,7 @@
         <v>0</v>
       </c>
       <c r="AV64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW64" s="0">
         <v>0</v>
@@ -13265,10 +13265,10 @@
         <v>0</v>
       </c>
       <c r="BB64" s="0">
-        <v>0</v>
+        <v>0.76716743487570827</v>
       </c>
       <c r="BC64" s="0">
-        <v>0</v>
+        <v>0.93458143687797635</v>
       </c>
       <c r="BD64" s="0">
         <v>0</v>
@@ -13298,7 +13298,7 @@
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN64" s="0">
         <v>0</v>
@@ -13354,7 +13354,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P65" s="0">
         <v>0</v>
@@ -13387,10 +13387,10 @@
         <v>0</v>
       </c>
       <c r="Z65" s="0">
-        <v>0</v>
+        <v>0.56343196631251202</v>
       </c>
       <c r="AA65" s="0">
-        <v>0</v>
+        <v>0.78662408412191998</v>
       </c>
       <c r="AB65" s="0">
         <v>0</v>
@@ -13423,7 +13423,7 @@
         <v>0</v>
       </c>
       <c r="AL65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM65" s="0">
         <v>0</v>
@@ -13465,7 +13465,7 @@
         <v>0</v>
       </c>
       <c r="AZ65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA65" s="0">
         <v>0</v>
@@ -13498,22 +13498,22 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>0</v>
+        <v>0.82618828955902679</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0</v>
+        <v>0.98027831995946357</v>
       </c>
       <c r="BO65" s="0">
         <v>0</v>
       </c>
       <c r="BP65" s="0">
-        <v>0</v>
+        <v>0.84578625090432569</v>
       </c>
     </row>
     <row r="66">
@@ -13533,7 +13533,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" s="0">
         <v>0</v>
@@ -13551,13 +13551,13 @@
         <v>0</v>
       </c>
       <c r="L66" s="0">
-        <v>0</v>
+        <v>0.50698438726044881</v>
       </c>
       <c r="M66" s="0">
         <v>0</v>
       </c>
       <c r="N66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O66" s="0">
         <v>0</v>
@@ -13680,19 +13680,19 @@
         <v>0</v>
       </c>
       <c r="BC66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD66" s="0">
-        <v>0</v>
+        <v>0.80866644368221996</v>
       </c>
       <c r="BE66" s="0">
         <v>0</v>
       </c>
       <c r="BF66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG66" s="0">
-        <v>0</v>
+        <v>0.54503446118767518</v>
       </c>
       <c r="BH66" s="0">
         <v>0</v>
@@ -13701,7 +13701,7 @@
         <v>0</v>
       </c>
       <c r="BJ66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK66" s="0">
         <v>0</v>
@@ -13710,7 +13710,7 @@
         <v>0</v>
       </c>
       <c r="BM66" s="0">
-        <v>0</v>
+        <v>0.69250251521494643</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
@@ -13748,13 +13748,13 @@
         <v>0</v>
       </c>
       <c r="I67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" s="0">
         <v>0</v>
       </c>
       <c r="K67" s="0">
-        <v>0</v>
+        <v>0.75184774385446007</v>
       </c>
       <c r="L67" s="0">
         <v>0</v>
@@ -13778,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="S67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T67" s="0">
         <v>0</v>
@@ -13844,7 +13844,7 @@
         <v>0</v>
       </c>
       <c r="AO67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP67" s="0">
         <v>0</v>
@@ -13907,7 +13907,7 @@
         <v>0</v>
       </c>
       <c r="BJ67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK67" s="0">
         <v>0</v>
@@ -13925,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0</v>
+        <v>0.75029005898880796</v>
       </c>
     </row>
     <row r="68">
@@ -13969,7 +13969,7 @@
         <v>0</v>
       </c>
       <c r="N68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68" s="0">
         <v>0</v>
@@ -13996,13 +13996,13 @@
         <v>0</v>
       </c>
       <c r="W68" s="0">
-        <v>0</v>
+        <v>0.51123475620509162</v>
       </c>
       <c r="X68" s="0">
         <v>0</v>
       </c>
       <c r="Y68" s="0">
-        <v>0</v>
+        <v>0.76722973199342359</v>
       </c>
       <c r="Z68" s="0">
         <v>0</v>
@@ -14080,7 +14080,7 @@
         <v>0</v>
       </c>
       <c r="AY68" s="0">
-        <v>0</v>
+        <v>0.77724199008259676</v>
       </c>
       <c r="AZ68" s="0">
         <v>0</v>
@@ -14095,7 +14095,7 @@
         <v>0</v>
       </c>
       <c r="BD68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE68" s="0">
         <v>0</v>
@@ -14122,13 +14122,13 @@
         <v>0</v>
       </c>
       <c r="BM68" s="0">
-        <v>0</v>
+        <v>0.50708466261016572</v>
       </c>
       <c r="BN68" s="0">
         <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>0</v>
+        <v>0.68476100563949682</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject22.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject22.xlsx
@@ -173,7 +173,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="0">
-        <v>0.70130882997213395</v>
+        <v>0.95432611918374544</v>
       </c>
       <c r="Q1" s="0">
         <v>0</v>
@@ -185,7 +185,7 @@
         <v>0</v>
       </c>
       <c r="T1" s="0">
-        <v>0.67843647103240978</v>
+        <v>0.88460935080061431</v>
       </c>
       <c r="U1" s="0">
         <v>0</v>
@@ -242,7 +242,7 @@
         <v>0</v>
       </c>
       <c r="AM1" s="0">
-        <v>0.63495029961479288</v>
+        <v>0.94964801443745217</v>
       </c>
       <c r="AN1" s="0">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="AP2" s="0">
-        <v>0.50665202178969326</v>
+        <v>0.72434425643317613</v>
       </c>
       <c r="AQ2" s="0">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="0">
-        <v>0.63935052117983848</v>
+        <v>0.76573902215764755</v>
       </c>
       <c r="J3" s="0">
         <v>0.84639842120813868</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="AE3" s="0">
-        <v>0.663049111139699</v>
+        <v>0.85219670907259149</v>
       </c>
       <c r="AF3" s="0">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>0.61296976832940131</v>
+        <v>0.76788849283222371</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="AS4" s="0">
-        <v>0.72237803696113168</v>
+        <v>0.76356437512763597</v>
       </c>
       <c r="AT4" s="0">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.76501413846906197</v>
+        <v>0.98872631165080649</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="AW6" s="0">
-        <v>0.55667116268948991</v>
+        <v>0.91576598540248444</v>
       </c>
       <c r="AX6" s="0">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.50791095783381113</v>
+        <v>0.97211331198335449</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1645,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="Z8" s="0">
-        <v>0.61538297287171062</v>
+        <v>0.80468935033190736</v>
       </c>
       <c r="AA8" s="0">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="0">
-        <v>0.80682054918840485</v>
+        <v>0.82631453270331945</v>
       </c>
       <c r="F9" s="0">
         <v>0</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="AN9" s="0">
-        <v>0.83245515421056626</v>
+        <v>0.99001735557272119</v>
       </c>
       <c r="AO9" s="0">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="0">
-        <v>0.80023241953858715</v>
+        <v>0.84639842120813868</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>0.64434997354876655</v>
+        <v>0.84009658287327449</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="BO11" s="0">
-        <v>0.64167802637624161</v>
+        <v>0.75184774385446007</v>
       </c>
       <c r="BP11" s="0">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="AD12" s="0">
-        <v>0.56337676547384108</v>
+        <v>0.64752655964938821</v>
       </c>
       <c r="AE12" s="0">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="AW12" s="0">
-        <v>0.77483342408174893</v>
+        <v>0.78082926713317202</v>
       </c>
       <c r="AX12" s="0">
         <v>0</v>
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="AN13" s="0">
-        <v>0.94700182524855192</v>
+        <v>0.99196762976849018</v>
       </c>
       <c r="AO13" s="0">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="BL13" s="0">
-        <v>0.86042435376164561</v>
+        <v>0.97223412040364077</v>
       </c>
       <c r="BM13" s="0">
         <v>0</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="AD14" s="0">
-        <v>0.66092632683989083</v>
+        <v>0.69921938629675529</v>
       </c>
       <c r="AE14" s="0">
         <v>0</v>
@@ -3257,10 +3257,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>0.52691723153879511</v>
+        <v>0.55162320250706542</v>
       </c>
       <c r="O16" s="0">
-        <v>0.67073440345540547</v>
+        <v>0.92644723967936016</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="0">
-        <v>0.50989338812076823</v>
+        <v>0.68337862758266299</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="0">
-        <v>0.65819049158182297</v>
+        <v>0.72809862439394224</v>
       </c>
       <c r="U17" s="0">
         <v>0</v>
@@ -3816,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="BK18" s="0">
-        <v>0.79359732775040981</v>
+        <v>0.91158302311635764</v>
       </c>
       <c r="BL18" s="0">
         <v>0</v>
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="0">
-        <v>0.75460074205247751</v>
+        <v>0.77123631124136538</v>
       </c>
       <c r="G19" s="0">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="AU19" s="0">
-        <v>0.71388346371804601</v>
+        <v>0.90853234309724384</v>
       </c>
       <c r="AV19" s="0">
         <v>0</v>
@@ -3983,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="AX19" s="0">
-        <v>0.76148407451042532</v>
+        <v>0.85139183951226527</v>
       </c>
       <c r="AY19" s="0">
         <v>0</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="0">
-        <v>0.52052112361010472</v>
+        <v>0.6932506581952893</v>
       </c>
       <c r="H21" s="0">
         <v>0</v>
@@ -4392,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="AW21" s="0">
-        <v>0.67420729784317623</v>
+        <v>0.86737929890488541</v>
       </c>
       <c r="AX21" s="0">
         <v>0</v>
@@ -4469,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="0">
-        <v>0.51861277830248165</v>
+        <v>0.87283035808039089</v>
       </c>
       <c r="G22" s="0">
         <v>0</v>
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="0">
-        <v>0.589018726806944</v>
+        <v>0.73774743812973864</v>
       </c>
       <c r="Q22" s="0">
         <v>0</v>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0.77165271726529183</v>
+        <v>0.84606833220088307</v>
       </c>
       <c r="X22" s="0">
         <v>0</v>
@@ -4687,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="0">
-        <v>0.50922304915039662</v>
+        <v>0.62304717349690752</v>
       </c>
       <c r="K23" s="0">
         <v>0</v>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0.54369413897903007</v>
+        <v>0.65470675049781757</v>
       </c>
       <c r="Y23" s="0">
         <v>0</v>
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="0">
-        <v>0.77855648205699302</v>
+        <v>0.8812108029229162</v>
       </c>
       <c r="K24" s="0">
         <v>0</v>
@@ -4968,7 +4968,7 @@
         <v>0</v>
       </c>
       <c r="AI24" s="0">
-        <v>0.6268966440679401</v>
+        <v>0.99776715764680035</v>
       </c>
       <c r="AJ24" s="0">
         <v>0</v>
@@ -5117,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="0">
-        <v>0.69422382654291859</v>
+        <v>0.80895931210227601</v>
       </c>
       <c r="Q25" s="0">
         <v>0</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="BG25" s="0">
-        <v>0.80404891479008944</v>
+        <v>0.9618151886689541</v>
       </c>
       <c r="BH25" s="0">
         <v>0</v>
@@ -5320,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="0">
-        <v>0.76963280678175494</v>
+        <v>0.92085189824502345</v>
       </c>
       <c r="P26" s="0">
         <v>0</v>
@@ -5425,13 +5425,13 @@
         <v>0</v>
       </c>
       <c r="AX26" s="0">
-        <v>0.52435833091194395</v>
+        <v>0.58700164610446448</v>
       </c>
       <c r="AY26" s="0">
         <v>0</v>
       </c>
       <c r="AZ26" s="0">
-        <v>0.56542427644918392</v>
+        <v>0.75486424644941885</v>
       </c>
       <c r="BA26" s="0">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>0.56672001768129954</v>
+        <v>0.86096872902376598</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5637,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="AZ27" s="0">
-        <v>0.68990234972660269</v>
+        <v>0.83128106587302775</v>
       </c>
       <c r="BA27" s="0">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="BK27" s="0">
-        <v>0.69207463899433841</v>
+        <v>0.84489171872988855</v>
       </c>
       <c r="BL27" s="0">
         <v>0</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>0.70009521232233318</v>
+        <v>0.72005052486207799</v>
       </c>
       <c r="AD28" s="0">
         <v>0</v>
@@ -5795,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="0">
-        <v>0.57776773420981709</v>
+        <v>0.69320726816192657</v>
       </c>
       <c r="AK28" s="0">
         <v>0</v>
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="0">
-        <v>0.5896035999761764</v>
+        <v>0.97867620841380454</v>
       </c>
       <c r="J29" s="0">
         <v>0</v>
@@ -6025,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="AR29" s="0">
-        <v>0.8823990786989786</v>
+        <v>0.99602719477268087</v>
       </c>
       <c r="AS29" s="0">
         <v>0</v>
@@ -6114,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="0">
-        <v>0.66404343668564281</v>
+        <v>0.9532358525631992</v>
       </c>
       <c r="F30" s="0">
         <v>0</v>
@@ -6186,13 +6186,13 @@
         <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>0.73421149121594109</v>
+        <v>0.94814254677650334</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0.56333119823553579</v>
+        <v>0.63023648490860895</v>
       </c>
       <c r="AF30" s="0">
         <v>0</v>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="0">
-        <v>0.89565078494240336</v>
+        <v>0.90727483359059646</v>
       </c>
       <c r="I31" s="0">
         <v>0</v>
@@ -6562,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="0">
-        <v>0.60106971458870129</v>
+        <v>0.95751675848558926</v>
       </c>
       <c r="R32" s="0">
         <v>0</v>
@@ -6580,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="0">
-        <v>0.56549173075939518</v>
+        <v>0.99465393890325116</v>
       </c>
       <c r="X32" s="0">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="AN32" s="0">
-        <v>0.67962411386985744</v>
+        <v>0.9085236072349443</v>
       </c>
       <c r="AO32" s="0">
         <v>0</v>
@@ -6792,7 +6792,7 @@
         <v>0</v>
       </c>
       <c r="Y33" s="0">
-        <v>0.50995553788643844</v>
+        <v>0.96421313908658046</v>
       </c>
       <c r="Z33" s="0">
         <v>0</v>
@@ -6801,7 +6801,7 @@
         <v>0</v>
       </c>
       <c r="AB33" s="0">
-        <v>0.61885066127627453</v>
+        <v>0.7970259513049508</v>
       </c>
       <c r="AC33" s="0">
         <v>0</v>
@@ -6852,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="AS33" s="0">
-        <v>0.60670263323519436</v>
+        <v>0.8339017786411298</v>
       </c>
       <c r="AT33" s="0">
         <v>0</v>
@@ -6864,10 +6864,10 @@
         <v>0</v>
       </c>
       <c r="AW33" s="0">
-        <v>0.58453732490435883</v>
+        <v>0.81126595415019054</v>
       </c>
       <c r="AX33" s="0">
-        <v>0.8489442095096742</v>
+        <v>0.88743527958539836</v>
       </c>
       <c r="AY33" s="0">
         <v>0</v>
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="0">
-        <v>0.91839038268235484</v>
+        <v>0.98446862006646008</v>
       </c>
       <c r="R34" s="0">
         <v>0</v>
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="BD34" s="0">
-        <v>0.7654295667279023</v>
+        <v>0.78084961434370082</v>
       </c>
       <c r="BE34" s="0">
         <v>0</v>
@@ -7219,7 +7219,7 @@
         <v>0</v>
       </c>
       <c r="AD35" s="0">
-        <v>0.63948525493417663</v>
+        <v>0.75029172521542542</v>
       </c>
       <c r="AE35" s="0">
         <v>0</v>
@@ -7231,13 +7231,13 @@
         <v>0</v>
       </c>
       <c r="AH35" s="0">
-        <v>0.56365668634195787</v>
+        <v>0.59203241093550041</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0.51933713004165805</v>
+        <v>0.77799427694979439</v>
       </c>
       <c r="AK35" s="0">
         <v>0</v>
@@ -7368,7 +7368,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="0">
-        <v>0.5243812128358778</v>
+        <v>0.96293807520532981</v>
       </c>
       <c r="L36" s="0">
         <v>0</v>
@@ -7494,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="BA36" s="0">
-        <v>0.59822266715327588</v>
+        <v>0.91209660073059218</v>
       </c>
       <c r="BB36" s="0">
         <v>0</v>
@@ -7515,7 +7515,7 @@
         <v>0</v>
       </c>
       <c r="BH36" s="0">
-        <v>0.51017596720018044</v>
+        <v>0.78686695959748143</v>
       </c>
       <c r="BI36" s="0">
         <v>0</v>
@@ -7562,7 +7562,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="0">
-        <v>0.70990280029853103</v>
+        <v>0.90915414831715813</v>
       </c>
       <c r="H37" s="0">
         <v>0</v>
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="0">
-        <v>0.77292838745942172</v>
+        <v>0.80200350867367787</v>
       </c>
       <c r="K37" s="0">
         <v>0</v>
@@ -7589,7 +7589,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="0">
-        <v>0.53492755117580582</v>
+        <v>0.87457216625218548</v>
       </c>
       <c r="Q37" s="0">
         <v>0</v>
@@ -7834,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="0">
-        <v>0.70071052317548754</v>
+        <v>0.92215552635683595</v>
       </c>
       <c r="AD38" s="0">
         <v>0</v>
@@ -8037,7 +8037,7 @@
         <v>0</v>
       </c>
       <c r="AB39" s="0">
-        <v>0.62453146213830579</v>
+        <v>0.83218302212732731</v>
       </c>
       <c r="AC39" s="0">
         <v>0</v>
@@ -8133,7 +8133,7 @@
         <v>0</v>
       </c>
       <c r="BH39" s="0">
-        <v>0.63042301588395222</v>
+        <v>0.69321619147968505</v>
       </c>
       <c r="BI39" s="0">
         <v>0</v>
@@ -8204,7 +8204,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="0">
-        <v>0.62911082724295597</v>
+        <v>0.94744645968207619</v>
       </c>
       <c r="P40" s="0">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>0.77758492036314109</v>
+        <v>0.85396047307026657</v>
       </c>
       <c r="AM40" s="0">
         <v>0</v>
@@ -8282,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>0.66494808522002236</v>
+        <v>0.67496930016656065</v>
       </c>
       <c r="AP40" s="0">
         <v>0</v>
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>0.59284074932601649</v>
+        <v>0.70907233148909021</v>
       </c>
       <c r="AQ41" s="0">
         <v>0</v>
@@ -8643,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="0">
-        <v>0.79211624586717488</v>
+        <v>0.92423753469222336</v>
       </c>
       <c r="Y42" s="0">
         <v>0</v>
@@ -8733,7 +8733,7 @@
         <v>0</v>
       </c>
       <c r="BB42" s="0">
-        <v>0.50588041285457108</v>
+        <v>0.93032152156488879</v>
       </c>
       <c r="BC42" s="0">
         <v>0</v>
@@ -8909,10 +8909,10 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0.61504112016516999</v>
+        <v>0.86748770854836466</v>
       </c>
       <c r="AS43" s="0">
-        <v>0.68726335142760986</v>
+        <v>0.94347068263374778</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9085,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="AH44" s="0">
-        <v>0.50295525066731139</v>
+        <v>0.65204169696461411</v>
       </c>
       <c r="AI44" s="0">
         <v>0</v>
@@ -9139,7 +9139,7 @@
         <v>0</v>
       </c>
       <c r="AZ44" s="0">
-        <v>0.51731025480864889</v>
+        <v>0.68656398843399968</v>
       </c>
       <c r="BA44" s="0">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="0">
-        <v>0.74972000785359039</v>
+        <v>0.86261448725391032</v>
       </c>
       <c r="AD46" s="0">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0.86092624367333825</v>
       </c>
       <c r="AV46" s="0">
-        <v>0.76320394046691842</v>
+        <v>0.82776495157700158</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="0">
-        <v>0.65652571048460806</v>
+        <v>0.96428849580111942</v>
       </c>
       <c r="P47" s="0">
         <v>0</v>
@@ -9739,13 +9739,13 @@
         <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>0.55552652957888826</v>
+        <v>0.86092624367333825</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>0.75797148309795015</v>
+        <v>0.76928140146789015</v>
       </c>
       <c r="AW47" s="0">
         <v>0</v>
@@ -9873,7 +9873,7 @@
         <v>0</v>
       </c>
       <c r="V48" s="0">
-        <v>0.83244906003290597</v>
+        <v>0.99875248301392427</v>
       </c>
       <c r="W48" s="0">
         <v>0</v>
@@ -9918,7 +9918,7 @@
         <v>0</v>
       </c>
       <c r="AK48" s="0">
-        <v>0.53141117606793442</v>
+        <v>0.9450460472982698</v>
       </c>
       <c r="AL48" s="0">
         <v>0</v>
@@ -10046,7 +10046,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="0">
-        <v>0.59592039475826142</v>
+        <v>0.71410050684448478</v>
       </c>
       <c r="L49" s="0">
         <v>0.78082926713317202</v>
@@ -10396,7 +10396,7 @@
         <v>0</v>
       </c>
       <c r="BG50" s="0">
-        <v>0.84648574419215072</v>
+        <v>0.91010585439323122</v>
       </c>
       <c r="BH50" s="0">
         <v>0</v>
@@ -10584,7 +10584,7 @@
         <v>0.97161593620943854</v>
       </c>
       <c r="BA51" s="0">
-        <v>0.71857555436017684</v>
+        <v>0.86007076039721531</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10629,7 +10629,7 @@
         <v>0</v>
       </c>
       <c r="BP51" s="0">
-        <v>0.63731459108225763</v>
+        <v>0.77724199008259676</v>
       </c>
     </row>
     <row r="52">
@@ -10757,7 +10757,7 @@
         <v>0</v>
       </c>
       <c r="AP52" s="0">
-        <v>0.53810465209916947</v>
+        <v>0.82296928651590784</v>
       </c>
       <c r="AQ52" s="0">
         <v>0</v>
@@ -10784,7 +10784,7 @@
         <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>0.58329424118859219</v>
+        <v>0.97161593620943854</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
@@ -10849,7 +10849,7 @@
         <v>0</v>
       </c>
       <c r="D53" s="0">
-        <v>0.55110934367343611</v>
+        <v>0.80960473780151465</v>
       </c>
       <c r="E53" s="0">
         <v>0</v>
@@ -10981,7 +10981,7 @@
         <v>0</v>
       </c>
       <c r="AV53" s="0">
-        <v>0.51471112055884793</v>
+        <v>0.82113733629612584</v>
       </c>
       <c r="AW53" s="0">
         <v>0</v>
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="AI54" s="0">
-        <v>0.541004161325499</v>
+        <v>0.72320167699428706</v>
       </c>
       <c r="AJ54" s="0">
         <v>0</v>
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>0.5694161547149279</v>
+        <v>0.68077342867986146</v>
       </c>
       <c r="BA54" s="0">
         <v>0</v>
@@ -11211,7 +11211,7 @@
         <v>0</v>
       </c>
       <c r="BD54" s="0">
-        <v>0.65108363741240649</v>
+        <v>0.96187464986076876</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11303,13 +11303,13 @@
         <v>0</v>
       </c>
       <c r="R55" s="0">
-        <v>0.82737780979705611</v>
+        <v>0.8579611018568154</v>
       </c>
       <c r="S55" s="0">
         <v>0</v>
       </c>
       <c r="T55" s="0">
-        <v>0.58936090994813273</v>
+        <v>0.98456582364649303</v>
       </c>
       <c r="U55" s="0">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="AU55" s="0">
-        <v>0.53327740908565224</v>
+        <v>0.69997825612645426</v>
       </c>
       <c r="AV55" s="0">
         <v>0</v>
@@ -11441,7 +11441,7 @@
         <v>0</v>
       </c>
       <c r="BL55" s="0">
-        <v>0.8707748955549407</v>
+        <v>0.93458143687797635</v>
       </c>
       <c r="BM55" s="0">
         <v>0</v>
@@ -11494,7 +11494,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="0">
-        <v>0.55306343624016252</v>
+        <v>0.86647344159727013</v>
       </c>
       <c r="N56" s="0">
         <v>0</v>
@@ -11512,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="S56" s="0">
-        <v>0.74653081088601625</v>
+        <v>0.79496210096548814</v>
       </c>
       <c r="T56" s="0">
         <v>0</v>
@@ -11638,7 +11638,7 @@
         <v>0</v>
       </c>
       <c r="BI56" s="0">
-        <v>0.54984096338996524</v>
+        <v>0.63914242463069959</v>
       </c>
       <c r="BJ56" s="0">
         <v>0</v>
@@ -11697,7 +11697,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="0">
-        <v>0.67192154338702736</v>
+        <v>0.77014925612866947</v>
       </c>
       <c r="M57" s="0">
         <v>0</v>
@@ -11799,7 +11799,7 @@
         <v>0</v>
       </c>
       <c r="AT57" s="0">
-        <v>0.65751161047145001</v>
+        <v>0.69351537822179077</v>
       </c>
       <c r="AU57" s="0">
         <v>0</v>
@@ -11826,10 +11826,10 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0.51828607494431744</v>
+        <v>0.66365603848899213</v>
       </c>
       <c r="BD57" s="0">
-        <v>0.71795799837406049</v>
+        <v>0.89703427041748141</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
@@ -11844,7 +11844,7 @@
         <v>0</v>
       </c>
       <c r="BI57" s="0">
-        <v>0.85693988793408171</v>
+        <v>0.89178085871367208</v>
       </c>
       <c r="BJ57" s="0">
         <v>0</v>
@@ -12079,7 +12079,7 @@
         <v>0</v>
       </c>
       <c r="B59" s="0">
-        <v>0.72087970682225244</v>
+        <v>0.7587959292680293</v>
       </c>
       <c r="C59" s="0">
         <v>0</v>
@@ -12247,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>0.54325008805305042</v>
+        <v>0.97237563584530284</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>0.81599089156972981</v>
+        <v>0.83341797965962661</v>
       </c>
       <c r="BG60" s="0">
         <v>0</v>
@@ -12763,7 +12763,7 @@
         <v>0</v>
       </c>
       <c r="X62" s="0">
-        <v>0.50093792075362054</v>
+        <v>0.85885745508704625</v>
       </c>
       <c r="Y62" s="0">
         <v>0</v>
@@ -12844,7 +12844,7 @@
         <v>0</v>
       </c>
       <c r="AY62" s="0">
-        <v>0.57575116496722001</v>
+        <v>0.73949636155201781</v>
       </c>
       <c r="AZ62" s="0">
         <v>0</v>
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0.73027717694230809</v>
+        <v>0.7822506207830362</v>
       </c>
       <c r="BI62" s="0">
         <v>0</v>
@@ -12921,7 +12921,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="0">
-        <v>0.68495695757088515</v>
+        <v>0.72106588715193887</v>
       </c>
       <c r="I63" s="0">
         <v>0</v>
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="BB64" s="0">
-        <v>0.76716743487570827</v>
+        <v>0.94697953114888034</v>
       </c>
       <c r="BC64" s="0">
         <v>0.93458143687797635</v>
@@ -13387,10 +13387,10 @@
         <v>0</v>
       </c>
       <c r="Z65" s="0">
-        <v>0.56343196631251202</v>
+        <v>0.6870347026690109</v>
       </c>
       <c r="AA65" s="0">
-        <v>0.78662408412191998</v>
+        <v>0.89614118897435957</v>
       </c>
       <c r="AB65" s="0">
         <v>0</v>
@@ -13498,7 +13498,7 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>0.82618828955902679</v>
+        <v>0.86671066479311587</v>
       </c>
       <c r="BL65" s="0">
         <v>0</v>
@@ -13551,7 +13551,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="0">
-        <v>0.50698438726044881</v>
+        <v>0.89793414724999376</v>
       </c>
       <c r="M66" s="0">
         <v>0</v>
@@ -13683,7 +13683,7 @@
         <v>0</v>
       </c>
       <c r="BD66" s="0">
-        <v>0.80866644368221996</v>
+        <v>0.81287637938048407</v>
       </c>
       <c r="BE66" s="0">
         <v>0</v>
@@ -13692,7 +13692,7 @@
         <v>0</v>
       </c>
       <c r="BG66" s="0">
-        <v>0.54503446118767518</v>
+        <v>0.91250989924892112</v>
       </c>
       <c r="BH66" s="0">
         <v>0</v>
@@ -13710,7 +13710,7 @@
         <v>0</v>
       </c>
       <c r="BM66" s="0">
-        <v>0.69250251521494643</v>
+        <v>0.98027831995946357</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
@@ -13996,13 +13996,13 @@
         <v>0</v>
       </c>
       <c r="W68" s="0">
-        <v>0.51123475620509162</v>
+        <v>0.65142900559358496</v>
       </c>
       <c r="X68" s="0">
         <v>0</v>
       </c>
       <c r="Y68" s="0">
-        <v>0.76722973199342359</v>
+        <v>0.81045115419118141</v>
       </c>
       <c r="Z68" s="0">
         <v>0</v>
@@ -14122,13 +14122,13 @@
         <v>0</v>
       </c>
       <c r="BM68" s="0">
-        <v>0.50708466261016572</v>
+        <v>0.84578625090432569</v>
       </c>
       <c r="BN68" s="0">
         <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>0.68476100563949682</v>
+        <v>0.75029005898880796</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>
